--- a/KglobEl.xlsx
+++ b/KglobEl.xlsx
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>556.1114996113639</v>
+        <v>0.556111499611364</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -467,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-556.1114996113639</v>
+        <v>-0.556111499611364</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -484,19 +484,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.089508331174244</v>
+        <v>0.003089508331174243</v>
       </c>
       <c r="D3" t="n">
-        <v>10.36252596833631</v>
+        <v>0.01036252596833631</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.089508331174244</v>
+        <v>-0.003089508331174243</v>
       </c>
       <c r="G3" t="n">
-        <v>10.36252596833631</v>
+        <v>0.01036252596833631</v>
       </c>
     </row>
     <row r="4">
@@ -507,19 +507,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>10.36252596833631</v>
+        <v>0.01036252596833631</v>
       </c>
       <c r="D4" t="n">
-        <v>46.34262496761366</v>
+        <v>0.04634262496761365</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-10.36252596833631</v>
+        <v>-0.01036252596833631</v>
       </c>
       <c r="G4" t="n">
-        <v>23.17131248380683</v>
+        <v>0.02317131248380683</v>
       </c>
     </row>
     <row r="5">
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-556.1114996113639</v>
+        <v>-0.556111499611364</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>556.1114996113639</v>
+        <v>0.556111499611364</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -553,19 +553,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.089508331174244</v>
+        <v>-0.003089508331174243</v>
       </c>
       <c r="D6" t="n">
-        <v>-10.36252596833631</v>
+        <v>-0.01036252596833631</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3.089508331174244</v>
+        <v>0.003089508331174243</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.36252596833631</v>
+        <v>-0.01036252596833631</v>
       </c>
     </row>
     <row r="7">
@@ -576,19 +576,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>10.36252596833631</v>
+        <v>0.01036252596833631</v>
       </c>
       <c r="D7" t="n">
-        <v>23.17131248380683</v>
+        <v>0.02317131248380683</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-10.36252596833631</v>
+        <v>-0.01036252596833631</v>
       </c>
       <c r="G7" t="n">
-        <v>46.34262496761366</v>
+        <v>0.04634262496761365</v>
       </c>
     </row>
   </sheetData>
